--- a/data/tc.xlsx
+++ b/data/tc.xlsx
@@ -30,12 +30,6 @@
     <t>Full group + regulators</t>
   </si>
   <si>
-    <t>talks/202206 Summary of Onco Estimand WG task force work.pdf</t>
-  </si>
-  <si>
-    <t>talks/202009 Summary of Onco Estimand WG papers.pdf</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -43,6 +37,12 @@
   </si>
   <si>
     <t>Material</t>
+  </si>
+  <si>
+    <t>talks/20200909/20200909_HA_interaction1.pdf</t>
+  </si>
+  <si>
+    <t>talks/20200909/20220628_HA_interaction2.pdf</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,13 +375,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -403,7 +403,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/tc.xlsx
+++ b/data/tc.xlsx
@@ -42,7 +42,7 @@
     <t>talks/20200909/20200909_HA_interaction1.pdf</t>
   </si>
   <si>
-    <t>talks/20200909/20220628_HA_interaction2.pdf</t>
+    <t>talks/20220628/20220628_HA_interaction2.pdf</t>
   </si>
 </sst>
 </file>
